--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.026618</v>
+        <v>0.03947</v>
       </c>
       <c r="H2">
-        <v>0.07985399999999999</v>
+        <v>0.11841</v>
       </c>
       <c r="I2">
-        <v>0.01885126588703216</v>
+        <v>0.02464674251283125</v>
       </c>
       <c r="J2">
-        <v>0.01885126588703216</v>
+        <v>0.02464674251283126</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.036035</v>
+        <v>0.173461</v>
       </c>
       <c r="N2">
-        <v>0.108105</v>
+        <v>0.520383</v>
       </c>
       <c r="O2">
-        <v>0.0661331398574747</v>
+        <v>0.2181774959583017</v>
       </c>
       <c r="P2">
-        <v>0.06613313985747468</v>
+        <v>0.2181774959583018</v>
       </c>
       <c r="Q2">
-        <v>0.0009591796299999999</v>
+        <v>0.00684650567</v>
       </c>
       <c r="R2">
-        <v>0.008632616669999999</v>
+        <v>0.06161855103</v>
       </c>
       <c r="S2">
-        <v>0.001246693403397539</v>
+        <v>0.005377364564978544</v>
       </c>
       <c r="T2">
-        <v>0.001246693403397539</v>
+        <v>0.005377364564978547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.026618</v>
+        <v>0.03947</v>
       </c>
       <c r="H3">
-        <v>0.07985399999999999</v>
+        <v>0.11841</v>
       </c>
       <c r="I3">
-        <v>0.01885126588703216</v>
+        <v>0.02464674251283125</v>
       </c>
       <c r="J3">
-        <v>0.01885126588703216</v>
+        <v>0.02464674251283126</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.471133</v>
       </c>
       <c r="O3">
-        <v>0.8999643350256354</v>
+        <v>0.6167920822963554</v>
       </c>
       <c r="P3">
-        <v>0.8999643350256353</v>
+        <v>0.6167920822963555</v>
       </c>
       <c r="Q3">
-        <v>0.01305287273133333</v>
+        <v>0.01935520650333333</v>
       </c>
       <c r="R3">
-        <v>0.117475854582</v>
+        <v>0.17419685853</v>
       </c>
       <c r="S3">
-        <v>0.01696546696841434</v>
+        <v>0.0152019156363113</v>
       </c>
       <c r="T3">
-        <v>0.01696546696841434</v>
+        <v>0.0152019156363113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.026618</v>
+        <v>0.03947</v>
       </c>
       <c r="H4">
-        <v>0.07985399999999999</v>
+        <v>0.11841</v>
       </c>
       <c r="I4">
-        <v>0.01885126588703216</v>
+        <v>0.02464674251283125</v>
       </c>
       <c r="J4">
-        <v>0.01885126588703216</v>
+        <v>0.02464674251283126</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +682,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.018473</v>
+        <v>0.04417666666666667</v>
       </c>
       <c r="N4">
-        <v>0.055419</v>
+        <v>0.13253</v>
       </c>
       <c r="O4">
-        <v>0.03390252511688997</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="P4">
-        <v>0.03390252511688997</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="Q4">
-        <v>0.000491714314</v>
+        <v>0.001743653033333333</v>
       </c>
       <c r="R4">
-        <v>0.004425428826</v>
+        <v>0.0156928773</v>
       </c>
       <c r="S4">
-        <v>0.0006391055152202787</v>
+        <v>0.001369495402033899</v>
       </c>
       <c r="T4">
-        <v>0.0006391055152202788</v>
+        <v>0.0013694954020339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.813943</v>
+        <v>0.03947</v>
       </c>
       <c r="H5">
-        <v>2.441829</v>
+        <v>0.11841</v>
       </c>
       <c r="I5">
-        <v>0.5764466116871522</v>
+        <v>0.02464674251283125</v>
       </c>
       <c r="J5">
-        <v>0.5764466116871523</v>
+        <v>0.02464674251283126</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.036035</v>
+        <v>0.08703</v>
       </c>
       <c r="N5">
-        <v>0.108105</v>
+        <v>0.26109</v>
       </c>
       <c r="O5">
-        <v>0.0661331398574747</v>
+        <v>0.1094654560578516</v>
       </c>
       <c r="P5">
-        <v>0.06613313985747468</v>
+        <v>0.1094654560578516</v>
       </c>
       <c r="Q5">
-        <v>0.029330436005</v>
+        <v>0.0034350741</v>
       </c>
       <c r="R5">
-        <v>0.263973924045</v>
+        <v>0.0309156669</v>
       </c>
       <c r="S5">
-        <v>0.03812222439107384</v>
+        <v>0.002697966909507513</v>
       </c>
       <c r="T5">
-        <v>0.03812222439107384</v>
+        <v>0.002697966909507514</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>2.441829</v>
       </c>
       <c r="I6">
-        <v>0.5764466116871522</v>
+        <v>0.5082605406922069</v>
       </c>
       <c r="J6">
-        <v>0.5764466116871523</v>
+        <v>0.5082605406922069</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4903776666666667</v>
+        <v>0.173461</v>
       </c>
       <c r="N6">
-        <v>1.471133</v>
+        <v>0.520383</v>
       </c>
       <c r="O6">
-        <v>0.8999643350256354</v>
+        <v>0.2181774959583017</v>
       </c>
       <c r="P6">
-        <v>0.8999643350256353</v>
+        <v>0.2181774959583018</v>
       </c>
       <c r="Q6">
-        <v>0.3991394691396666</v>
+        <v>0.141187366723</v>
       </c>
       <c r="R6">
-        <v>3.592255222257</v>
+        <v>1.270686300507</v>
       </c>
       <c r="S6">
-        <v>0.5187813915648086</v>
+        <v>0.1108910120626382</v>
       </c>
       <c r="T6">
-        <v>0.5187813915648086</v>
+        <v>0.1108910120626383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,72 +856,72 @@
         <v>2.441829</v>
       </c>
       <c r="I7">
-        <v>0.5764466116871522</v>
+        <v>0.5082605406922069</v>
       </c>
       <c r="J7">
-        <v>0.5764466116871523</v>
+        <v>0.5082605406922069</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.018473</v>
+        <v>0.4903776666666667</v>
       </c>
       <c r="N7">
-        <v>0.055419</v>
+        <v>1.471133</v>
       </c>
       <c r="O7">
-        <v>0.03390252511688997</v>
+        <v>0.6167920822963554</v>
       </c>
       <c r="P7">
-        <v>0.03390252511688997</v>
+        <v>0.6167920822963555</v>
       </c>
       <c r="Q7">
-        <v>0.015035969039</v>
+        <v>0.3991394691396666</v>
       </c>
       <c r="R7">
-        <v>0.135323721351</v>
+        <v>3.592255222257</v>
       </c>
       <c r="S7">
-        <v>0.01954299573126979</v>
+        <v>0.3134910772426178</v>
       </c>
       <c r="T7">
-        <v>0.0195429957312698</v>
+        <v>0.3134910772426179</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.039454</v>
+        <v>0.813943</v>
       </c>
       <c r="H8">
-        <v>0.118362</v>
+        <v>2.441829</v>
       </c>
       <c r="I8">
-        <v>0.02794191315301551</v>
+        <v>0.5082605406922069</v>
       </c>
       <c r="J8">
-        <v>0.02794191315301551</v>
+        <v>0.5082605406922069</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.036035</v>
+        <v>0.04417666666666667</v>
       </c>
       <c r="N8">
-        <v>0.108105</v>
+        <v>0.13253</v>
       </c>
       <c r="O8">
-        <v>0.0661331398574747</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="P8">
-        <v>0.06613313985747468</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="Q8">
-        <v>0.00142172489</v>
+        <v>0.03595728859666666</v>
       </c>
       <c r="R8">
-        <v>0.01279552401</v>
+        <v>0.32361559737</v>
       </c>
       <c r="S8">
-        <v>0.001847886450433786</v>
+        <v>0.0282414795038682</v>
       </c>
       <c r="T8">
-        <v>0.001847886450433786</v>
+        <v>0.0282414795038682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,25 +965,25 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.039454</v>
+        <v>0.813943</v>
       </c>
       <c r="H9">
-        <v>0.118362</v>
+        <v>2.441829</v>
       </c>
       <c r="I9">
-        <v>0.02794191315301551</v>
+        <v>0.5082605406922069</v>
       </c>
       <c r="J9">
-        <v>0.02794191315301551</v>
+        <v>0.5082605406922069</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4903776666666667</v>
+        <v>0.08703</v>
       </c>
       <c r="N9">
-        <v>1.471133</v>
+        <v>0.26109</v>
       </c>
       <c r="O9">
-        <v>0.8999643350256354</v>
+        <v>0.1094654560578516</v>
       </c>
       <c r="P9">
-        <v>0.8999643350256353</v>
+        <v>0.1094654560578516</v>
       </c>
       <c r="Q9">
-        <v>0.01934736046066667</v>
+        <v>0.07083745928999999</v>
       </c>
       <c r="R9">
-        <v>0.174126244146</v>
+        <v>0.63753713361</v>
       </c>
       <c r="S9">
-        <v>0.02514672529009766</v>
+        <v>0.05563697188308268</v>
       </c>
       <c r="T9">
-        <v>0.02514672529009766</v>
+        <v>0.0556369718830827</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,51 +1036,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.039454</v>
+        <v>0.08494933333333334</v>
       </c>
       <c r="H10">
-        <v>0.118362</v>
+        <v>0.254848</v>
       </c>
       <c r="I10">
-        <v>0.02794191315301551</v>
+        <v>0.05304596770467038</v>
       </c>
       <c r="J10">
-        <v>0.02794191315301551</v>
+        <v>0.05304596770467038</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.018473</v>
+        <v>0.173461</v>
       </c>
       <c r="N10">
-        <v>0.055419</v>
+        <v>0.520383</v>
       </c>
       <c r="O10">
-        <v>0.03390252511688997</v>
+        <v>0.2181774959583017</v>
       </c>
       <c r="P10">
-        <v>0.03390252511688997</v>
+        <v>0.2181774959583018</v>
       </c>
       <c r="Q10">
-        <v>0.0007288337419999999</v>
+        <v>0.01473539630933333</v>
       </c>
       <c r="R10">
-        <v>0.006559503678</v>
+        <v>0.132618566784</v>
       </c>
       <c r="S10">
-        <v>0.0009473014124840662</v>
+        <v>0.01157343640448993</v>
       </c>
       <c r="T10">
-        <v>0.0009473014124840665</v>
+        <v>0.01157343640448993</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4019793333333333</v>
+        <v>0.08494933333333334</v>
       </c>
       <c r="H11">
-        <v>1.205938</v>
+        <v>0.254848</v>
       </c>
       <c r="I11">
-        <v>0.2846877787120969</v>
+        <v>0.05304596770467038</v>
       </c>
       <c r="J11">
-        <v>0.284687778712097</v>
+        <v>0.05304596770467038</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.036035</v>
+        <v>0.4903776666666667</v>
       </c>
       <c r="N11">
-        <v>0.108105</v>
+        <v>1.471133</v>
       </c>
       <c r="O11">
-        <v>0.0661331398574747</v>
+        <v>0.6167920822963554</v>
       </c>
       <c r="P11">
-        <v>0.06613313985747468</v>
+        <v>0.6167920822963555</v>
       </c>
       <c r="Q11">
-        <v>0.01448532527666666</v>
+        <v>0.04165725586488889</v>
       </c>
       <c r="R11">
-        <v>0.13036792749</v>
+        <v>0.374915302784</v>
       </c>
       <c r="S11">
-        <v>0.01882729668528091</v>
+        <v>0.03271833287798886</v>
       </c>
       <c r="T11">
-        <v>0.01882729668528092</v>
+        <v>0.03271833287798887</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4019793333333333</v>
+        <v>0.08494933333333334</v>
       </c>
       <c r="H12">
-        <v>1.205938</v>
+        <v>0.254848</v>
       </c>
       <c r="I12">
-        <v>0.2846877787120969</v>
+        <v>0.05304596770467038</v>
       </c>
       <c r="J12">
-        <v>0.284687778712097</v>
+        <v>0.05304596770467038</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.4903776666666667</v>
+        <v>0.04417666666666667</v>
       </c>
       <c r="N12">
-        <v>1.471133</v>
+        <v>0.13253</v>
       </c>
       <c r="O12">
-        <v>0.8999643350256354</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="P12">
-        <v>0.8999643350256353</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="Q12">
-        <v>0.1971216875282222</v>
+        <v>0.003752778382222223</v>
       </c>
       <c r="R12">
-        <v>1.774095187754</v>
+        <v>0.03377500544000001</v>
       </c>
       <c r="S12">
-        <v>0.2562088474585575</v>
+        <v>0.002947497375369776</v>
       </c>
       <c r="T12">
-        <v>0.2562088474585576</v>
+        <v>0.002947497375369776</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4019793333333333</v>
+        <v>0.08494933333333334</v>
       </c>
       <c r="H13">
-        <v>1.205938</v>
+        <v>0.254848</v>
       </c>
       <c r="I13">
-        <v>0.2846877787120969</v>
+        <v>0.05304596770467038</v>
       </c>
       <c r="J13">
-        <v>0.284687778712097</v>
+        <v>0.05304596770467038</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.018473</v>
+        <v>0.08703</v>
       </c>
       <c r="N13">
-        <v>0.055419</v>
+        <v>0.26109</v>
       </c>
       <c r="O13">
-        <v>0.03390252511688997</v>
+        <v>0.1094654560578516</v>
       </c>
       <c r="P13">
-        <v>0.03390252511688997</v>
+        <v>0.1094654560578516</v>
       </c>
       <c r="Q13">
-        <v>0.007425764224666666</v>
+        <v>0.00739314048</v>
       </c>
       <c r="R13">
-        <v>0.066831878022</v>
+        <v>0.06653826432</v>
       </c>
       <c r="S13">
-        <v>0.009651634568258478</v>
+        <v>0.005806701046821811</v>
       </c>
       <c r="T13">
-        <v>0.009651634568258481</v>
+        <v>0.005806701046821813</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1300063333333333</v>
+        <v>0.434152</v>
       </c>
       <c r="H14">
-        <v>0.390019</v>
+        <v>1.302456</v>
       </c>
       <c r="I14">
-        <v>0.09207243056070323</v>
+        <v>0.2711029276774947</v>
       </c>
       <c r="J14">
-        <v>0.09207243056070324</v>
+        <v>0.2711029276774947</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.036035</v>
+        <v>0.173461</v>
       </c>
       <c r="N14">
-        <v>0.108105</v>
+        <v>0.520383</v>
       </c>
       <c r="O14">
-        <v>0.0661331398574747</v>
+        <v>0.2181774959583017</v>
       </c>
       <c r="P14">
-        <v>0.06613313985747468</v>
+        <v>0.2181774959583018</v>
       </c>
       <c r="Q14">
-        <v>0.004684778221666666</v>
+        <v>0.07530844007200001</v>
       </c>
       <c r="R14">
-        <v>0.042163003995</v>
+        <v>0.6777759606480001</v>
       </c>
       <c r="S14">
-        <v>0.006089038927288614</v>
+        <v>0.05914855790764036</v>
       </c>
       <c r="T14">
-        <v>0.006089038927288614</v>
+        <v>0.05914855790764038</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1300063333333333</v>
+        <v>0.434152</v>
       </c>
       <c r="H15">
-        <v>0.390019</v>
+        <v>1.302456</v>
       </c>
       <c r="I15">
-        <v>0.09207243056070323</v>
+        <v>0.2711029276774947</v>
       </c>
       <c r="J15">
-        <v>0.09207243056070324</v>
+        <v>0.2711029276774947</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>1.471133</v>
       </c>
       <c r="O15">
-        <v>0.8999643350256354</v>
+        <v>0.6167920822963554</v>
       </c>
       <c r="P15">
-        <v>0.8999643350256353</v>
+        <v>0.6167920822963555</v>
       </c>
       <c r="Q15">
-        <v>0.06375220239188889</v>
+        <v>0.2128984447386667</v>
       </c>
       <c r="R15">
-        <v>0.5737698215270001</v>
+        <v>1.916086002648</v>
       </c>
       <c r="S15">
-        <v>0.08286190374375728</v>
+        <v>0.1672141392788402</v>
       </c>
       <c r="T15">
-        <v>0.08286190374375728</v>
+        <v>0.1672141392788402</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,25 +1399,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1300063333333333</v>
+        <v>0.434152</v>
       </c>
       <c r="H16">
-        <v>0.390019</v>
+        <v>1.302456</v>
       </c>
       <c r="I16">
-        <v>0.09207243056070323</v>
+        <v>0.2711029276774947</v>
       </c>
       <c r="J16">
-        <v>0.09207243056070324</v>
+        <v>0.2711029276774947</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.018473</v>
+        <v>0.04417666666666667</v>
       </c>
       <c r="N16">
-        <v>0.055419</v>
+        <v>0.13253</v>
       </c>
       <c r="O16">
-        <v>0.03390252511688997</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="P16">
-        <v>0.03390252511688997</v>
+        <v>0.0555649656874912</v>
       </c>
       <c r="Q16">
-        <v>0.002401606995666667</v>
+        <v>0.01917938818666667</v>
       </c>
       <c r="R16">
-        <v>0.021614462961</v>
+        <v>0.17261449368</v>
       </c>
       <c r="S16">
-        <v>0.003121487889657349</v>
+        <v>0.0150638248741784</v>
       </c>
       <c r="T16">
-        <v>0.003121487889657349</v>
+        <v>0.0150638248741784</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.434152</v>
+      </c>
+      <c r="H17">
+        <v>1.302456</v>
+      </c>
+      <c r="I17">
+        <v>0.2711029276774947</v>
+      </c>
+      <c r="J17">
+        <v>0.2711029276774947</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.08703</v>
+      </c>
+      <c r="N17">
+        <v>0.26109</v>
+      </c>
+      <c r="O17">
+        <v>0.1094654560578516</v>
+      </c>
+      <c r="P17">
+        <v>0.1094654560578516</v>
+      </c>
+      <c r="Q17">
+        <v>0.03778424856</v>
+      </c>
+      <c r="R17">
+        <v>0.34005823704</v>
+      </c>
+      <c r="S17">
+        <v>0.02967640561683572</v>
+      </c>
+      <c r="T17">
+        <v>0.02967640561683572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2289143333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.686743</v>
+      </c>
+      <c r="I18">
+        <v>0.1429438214127968</v>
+      </c>
+      <c r="J18">
+        <v>0.1429438214127969</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.173461</v>
+      </c>
+      <c r="N18">
+        <v>0.520383</v>
+      </c>
+      <c r="O18">
+        <v>0.2181774959583017</v>
+      </c>
+      <c r="P18">
+        <v>0.2181774959583018</v>
+      </c>
+      <c r="Q18">
+        <v>0.03970770917433333</v>
+      </c>
+      <c r="R18">
+        <v>0.357369382569</v>
+      </c>
+      <c r="S18">
+        <v>0.03118712501855469</v>
+      </c>
+      <c r="T18">
+        <v>0.0311871250185547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2289143333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.686743</v>
+      </c>
+      <c r="I19">
+        <v>0.1429438214127968</v>
+      </c>
+      <c r="J19">
+        <v>0.1429438214127969</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.4903776666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.471133</v>
+      </c>
+      <c r="O19">
+        <v>0.6167920822963554</v>
+      </c>
+      <c r="P19">
+        <v>0.6167920822963555</v>
+      </c>
+      <c r="Q19">
+        <v>0.1122544766465556</v>
+      </c>
+      <c r="R19">
+        <v>1.010290289819</v>
+      </c>
+      <c r="S19">
+        <v>0.08816661726059731</v>
+      </c>
+      <c r="T19">
+        <v>0.08816661726059734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2289143333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.686743</v>
+      </c>
+      <c r="I20">
+        <v>0.1429438214127968</v>
+      </c>
+      <c r="J20">
+        <v>0.1429438214127969</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04417666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.13253</v>
+      </c>
+      <c r="O20">
+        <v>0.0555649656874912</v>
+      </c>
+      <c r="P20">
+        <v>0.0555649656874912</v>
+      </c>
+      <c r="Q20">
+        <v>0.01011267219888889</v>
+      </c>
+      <c r="R20">
+        <v>0.09101404979000001</v>
+      </c>
+      <c r="S20">
+        <v>0.007942668532040925</v>
+      </c>
+      <c r="T20">
+        <v>0.007942668532040927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2289143333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.686743</v>
+      </c>
+      <c r="I21">
+        <v>0.1429438214127968</v>
+      </c>
+      <c r="J21">
+        <v>0.1429438214127969</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.08703</v>
+      </c>
+      <c r="N21">
+        <v>0.26109</v>
+      </c>
+      <c r="O21">
+        <v>0.1094654560578516</v>
+      </c>
+      <c r="P21">
+        <v>0.1094654560578516</v>
+      </c>
+      <c r="Q21">
+        <v>0.01992241443</v>
+      </c>
+      <c r="R21">
+        <v>0.17930172987</v>
+      </c>
+      <c r="S21">
+        <v>0.0156474106016039</v>
+      </c>
+      <c r="T21">
+        <v>0.01564741060160391</v>
       </c>
     </row>
   </sheetData>
